--- a/Porewater/Sulfide/Synoptic_CB/2025/202511/Raw Data/20251114_COMPASS_H2S_Plate5.xlsx
+++ b/Porewater/Sulfide/Synoptic_CB/2025/202511/Raw Data/20251114_COMPASS_H2S_Plate5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\microplate\Desktop\BioGeoChem_Microplates\COMPASS\H2S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE68146B-764E-4EB7-BA21-D0E93CD7D8A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5A9721-C476-473A-82C8-8D4B8876D8D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18885" windowHeight="11640" xr2:uid="{ADAF1A8F-FBE5-4914-93E2-7A0CC22B77C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18885" windowHeight="11640" xr2:uid="{B5C9614C-E24A-448B-8860-EC03100E88DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -244,6 +244,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.6809711286089242E-2"/>
+                  <c:y val="-1.7621755613881599E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -308,22 +314,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.9666666666666668E-2</c:v>
+                  <c:v>6.6000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12433333333333334</c:v>
+                  <c:v>0.12066666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19433333333333333</c:v>
+                  <c:v>0.22833333333333336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38700000000000001</c:v>
+                  <c:v>0.34266666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55299999999999994</c:v>
+                  <c:v>0.66899999999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92766666666666664</c:v>
+                  <c:v>1.0083333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -331,7 +337,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EB2E-4E55-A173-9BAADEF2EF61}"/>
+              <c16:uniqueId val="{00000000-B4A9-40FB-B9FF-7EBA7B220609}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -343,11 +349,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="438836592"/>
-        <c:axId val="438833312"/>
+        <c:axId val="434005784"/>
+        <c:axId val="434008408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="438836592"/>
+        <c:axId val="434005784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -404,12 +410,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438833312"/>
+        <c:crossAx val="434008408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="438833312"/>
+        <c:axId val="434008408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -466,7 +472,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438836592"/>
+        <c:crossAx val="434005784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1083,22 +1089,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{242DD674-36F7-49C4-93DA-845539BD8529}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F7D3A0D-AA5F-4A6F-85BE-1F207955939E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1415,11 +1421,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158FC320-BC72-4F90-BE1F-B6A30FF78D17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3BCD68-93C2-4BDF-A87E-7FD9DEFC6CE7}">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,37 +1477,37 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C2" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="D2" s="3">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="H2" s="3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="J2" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K2" s="3">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="E2" s="3">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.155</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.155</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0.308</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="K2" s="3">
-        <v>4.4999999999999998E-2</v>
-      </c>
       <c r="L2" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="M2" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="N2" s="4">
         <v>670</v>
@@ -1512,40 +1518,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>0.121</v>
+        <v>0.126</v>
       </c>
       <c r="C3" s="3">
-        <v>0.13500000000000001</v>
+        <v>0.113</v>
       </c>
       <c r="D3" s="3">
-        <v>0.11700000000000001</v>
+        <v>0.123</v>
       </c>
       <c r="E3" s="3">
-        <v>0.12</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F3" s="3">
-        <v>0.13500000000000001</v>
+        <v>7.8E-2</v>
       </c>
       <c r="G3" s="3">
-        <v>0.16400000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="H3" s="3">
-        <v>0.155</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="I3" s="3">
-        <v>0.14699999999999999</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="J3" s="3">
-        <v>0.16</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K3" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="L3" s="3">
-        <v>4.3999999999999997E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="M3" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="N3" s="4">
         <v>670</v>
@@ -1556,40 +1562,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>0.188</v>
+        <v>0.252</v>
       </c>
       <c r="C4" s="3">
-        <v>0.216</v>
+        <v>0.189</v>
       </c>
       <c r="D4" s="3">
-        <v>0.17899999999999999</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="E4" s="3">
-        <v>0.16</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F4" s="3">
-        <v>0.155</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="G4" s="3">
-        <v>0.2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="H4" s="3">
-        <v>4.3999999999999997E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="I4" s="3">
-        <v>4.3999999999999997E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="J4" s="3">
-        <v>4.3999999999999997E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="K4" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="L4" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="M4" s="3">
-        <v>4.7E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="N4" s="4">
         <v>670</v>
@@ -1600,40 +1606,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>0.38600000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="C5" s="3">
-        <v>0.45500000000000002</v>
+        <v>0.308</v>
       </c>
       <c r="D5" s="3">
-        <v>0.38800000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="E5" s="3">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="K5" s="3">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="F5" s="3">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="G5" s="3">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="H5" s="3">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="I5" s="3">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="J5" s="3">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="K5" s="3">
-        <v>4.4999999999999998E-2</v>
-      </c>
       <c r="L5" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M5" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="N5" s="4">
         <v>670</v>
@@ -1644,40 +1650,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>0.57099999999999995</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="C6" s="3">
-        <v>0.52300000000000002</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="D6" s="3">
-        <v>0.56499999999999995</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="E6" s="3">
         <v>6.2E-2</v>
       </c>
       <c r="F6" s="3">
-        <v>6.4000000000000001E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="G6" s="3">
-        <v>6.2E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H6" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="I6" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="J6" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="K6" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>0.111</v>
       </c>
       <c r="L6" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>0.108</v>
       </c>
       <c r="M6" s="3">
-        <v>4.3999999999999997E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="N6" s="4">
         <v>670</v>
@@ -1688,40 +1694,40 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>0.88500000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="C7" s="3">
-        <v>0.93</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="D7" s="3">
-        <v>0.96799999999999997</v>
+        <v>1.004</v>
       </c>
       <c r="E7" s="3">
-        <v>0.06</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F7" s="3">
-        <v>6.2E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="G7" s="3">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="L7" s="3">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="M7" s="3">
         <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="H7" s="3">
-        <v>6.2E-2</v>
-      </c>
-      <c r="I7" s="3">
-        <v>6.3E-2</v>
-      </c>
-      <c r="J7" s="3">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="K7" s="3">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="L7" s="3">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="M7" s="3">
-        <v>4.3999999999999997E-2</v>
       </c>
       <c r="N7" s="4">
         <v>670</v>
@@ -1732,40 +1738,40 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>0.94099999999999995</v>
+        <v>1.232</v>
       </c>
       <c r="C8" s="3">
-        <v>1.056</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="D8" s="3">
-        <v>0.97599999999999998</v>
+        <v>1.1140000000000001</v>
       </c>
       <c r="E8" s="3">
-        <v>6.4000000000000001E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="F8" s="3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="J8" s="3">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="K8" s="3">
         <v>0.06</v>
       </c>
-      <c r="G8" s="3">
-        <v>6.2E-2</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="I8" s="3">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="J8" s="3">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="K8" s="3">
-        <v>4.3999999999999997E-2</v>
-      </c>
       <c r="L8" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="M8" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="N8" s="4">
         <v>670</v>
@@ -1776,40 +1782,40 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>1.028</v>
+        <v>0.97</v>
       </c>
       <c r="C9" s="3">
-        <v>1.091</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="D9" s="3">
-        <v>1.018</v>
+        <v>1.2410000000000001</v>
       </c>
       <c r="E9" s="3">
-        <v>0.221</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="F9" s="3">
-        <v>0.217</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="G9" s="3">
-        <v>0.224</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="H9" s="3">
-        <v>0.23</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="I9" s="3">
-        <v>0.22800000000000001</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="J9" s="3">
-        <v>0.22800000000000001</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="K9" s="3">
-        <v>4.3999999999999997E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="L9" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="M9" s="3">
-        <v>5.1999999999999998E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="N9" s="4">
         <v>670</v>
@@ -1821,15 +1827,19 @@
       </c>
       <c r="B11">
         <f>AVERAGE(B2:D2)</f>
-        <v>6.9666666666666668E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="E11">
         <f>AVERAGE(E2:G2)</f>
-        <v>0.153</v>
+        <v>7.5333333333333322E-2</v>
       </c>
       <c r="H11">
         <f>AVERAGE(H2:J2)</f>
-        <v>0.308</v>
+        <v>6.9666666666666668E-2</v>
+      </c>
+      <c r="K11">
+        <f>AVERAGE(K2:M2)</f>
+        <v>6.8333333333333343E-2</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1838,15 +1848,19 @@
       </c>
       <c r="B12">
         <f t="shared" ref="B12:B18" si="0">AVERAGE(B3:D3)</f>
-        <v>0.12433333333333334</v>
+        <v>0.12066666666666666</v>
       </c>
       <c r="E12">
         <f t="shared" ref="E12:E18" si="1">AVERAGE(E3:G3)</f>
-        <v>0.13966666666666669</v>
+        <v>7.7666666666666662E-2</v>
       </c>
       <c r="H12">
         <f t="shared" ref="H12:H18" si="2">AVERAGE(H3:J3)</f>
-        <v>0.154</v>
+        <v>6.5666666666666665E-2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12:K18" si="3">AVERAGE(K3:M3)</f>
+        <v>7.6666666666666661E-2</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1855,15 +1869,19 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>0.19433333333333333</v>
+        <v>0.22833333333333336</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>0.17166666666666666</v>
+        <v>6.3333333333333339E-2</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>4.4000000000000004E-2</v>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>0.106</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1871,16 +1889,20 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <f>AVERAGE(B5,D5)</f>
-        <v>0.38700000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.34266666666666667</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>7.4666666666666659E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>4.4333333333333336E-2</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>7.0666666666666669E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1889,15 +1911,19 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>0.55299999999999994</v>
+        <v>0.66899999999999993</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>6.2666666666666662E-2</v>
+        <v>6.0333333333333329E-2</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>4.5000000000000005E-2</v>
+        <v>7.1333333333333318E-2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>0.107</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1906,43 +1932,55 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>0.92766666666666664</v>
+        <v>1.0083333333333333</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>6.2E-2</v>
+        <v>6.533333333333334E-2</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>6.2E-2</v>
+        <v>7.0666666666666669E-2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>0.99099999999999999</v>
+        <v>1.1506666666666667</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>6.2E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>4.4666666666666667E-2</v>
+        <v>6.9333333333333344E-2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>6.0333333333333329E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>1.0456666666666665</v>
+        <v>1.0853333333333333</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>0.22066666666666668</v>
+        <v>0.55566666666666664</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>0.22866666666666668</v>
+        <v>0.37366666666666665</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>9.3666666666666676E-2</v>
       </c>
     </row>
   </sheetData>
